--- a/17 Computing Inflation.xlsx
+++ b/17 Computing Inflation.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsethi/Google Drive/Teaching/Intro to Economic Reasoning/Intro Fall 2021/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F8F37B7-1F13-E94A-8F5D-CB87785ADAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E565DA-1D72-304F-92E9-B68E4C17ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14180" xr2:uid="{23129348-E428-1440-A48A-083B8B0F81F5}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14180" activeTab="2" xr2:uid="{23129348-E428-1440-A48A-083B8B0F81F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Partial" sheetId="1" r:id="rId1"/>
     <sheet name="Complete" sheetId="2" r:id="rId2"/>
+    <sheet name="CPI Partial" sheetId="4" r:id="rId3"/>
+    <sheet name="CPI Complete" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>Year</t>
   </si>
@@ -81,6 +83,15 @@
   </si>
   <si>
     <t>Inflation rate</t>
+  </si>
+  <si>
+    <t>CPI Inflation rate</t>
+  </si>
+  <si>
+    <t>CPI Basket</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -126,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,11 +160,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -174,6 +222,15 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84192888-0066-AE49-95BE-A87EC42A7EC1}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -863,4 +920,347 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C43F134-5601-1E41-B03F-0A6863EF6031}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF70A37-4E3D-B240-945E-EC8059CEC257}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6">
+        <f>B10*B5+B11*B6</f>
+        <v>150</v>
+      </c>
+      <c r="C13" s="6">
+        <f>C10*C5+C11*C6</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7">
+        <f>(C13-B13)/B13</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>